--- a/core/utils/distgradeunificadaCAMPINAS.xlsx
+++ b/core/utils/distgradeunificadaCAMPINAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AD35B6-06D6-472B-8897-20C2AC764478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA669148-C6C9-492F-9582-565B084EE9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -715,13 +715,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
@@ -800,39 +800,17 @@
       <c r="F2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9">
-        <v>40</v>
-      </c>
-      <c r="H2" s="9">
-        <v>60</v>
-      </c>
-      <c r="I2" s="9">
-        <v>70</v>
-      </c>
-      <c r="J2" s="9">
-        <v>70</v>
-      </c>
-      <c r="K2" s="9">
-        <v>70</v>
-      </c>
-      <c r="L2" s="9">
-        <v>60</v>
-      </c>
-      <c r="M2" s="9">
-        <v>60</v>
-      </c>
-      <c r="N2" s="9">
-        <v>40</v>
-      </c>
-      <c r="O2" s="9">
-        <v>20</v>
-      </c>
-      <c r="P2" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>0</v>
-      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -853,39 +831,17 @@
       <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>38</v>
-      </c>
-      <c r="I3" s="9">
-        <v>44</v>
-      </c>
-      <c r="J3" s="9">
-        <v>96</v>
-      </c>
-      <c r="K3" s="9">
-        <v>105</v>
-      </c>
-      <c r="L3" s="9">
-        <v>55</v>
-      </c>
-      <c r="M3" s="9">
-        <v>47</v>
-      </c>
-      <c r="N3" s="9">
-        <v>40</v>
-      </c>
-      <c r="O3" s="9">
-        <v>41</v>
-      </c>
-      <c r="P3" s="9">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>5</v>
-      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -906,39 +862,17 @@
       <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="9">
-        <v>35</v>
-      </c>
-      <c r="H4" s="9">
-        <v>101</v>
-      </c>
-      <c r="I4" s="9">
-        <v>110</v>
-      </c>
-      <c r="J4" s="9">
-        <v>98</v>
-      </c>
-      <c r="K4" s="9">
-        <v>55</v>
-      </c>
-      <c r="L4" s="9">
-        <v>30</v>
-      </c>
-      <c r="M4" s="9">
-        <v>3</v>
-      </c>
-      <c r="N4" s="9">
-        <v>3</v>
-      </c>
-      <c r="O4" s="9">
-        <v>3</v>
-      </c>
-      <c r="P4" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>0</v>
-      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -959,39 +893,17 @@
       <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9">
-        <v>15</v>
-      </c>
-      <c r="H5" s="9">
-        <v>30</v>
-      </c>
-      <c r="I5" s="9">
-        <v>10</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0</v>
-      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -1012,39 +924,17 @@
       <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="9">
-        <v>50</v>
-      </c>
-      <c r="H6" s="9">
-        <v>50</v>
-      </c>
-      <c r="I6" s="9">
-        <v>50</v>
-      </c>
-      <c r="J6" s="9">
-        <v>50</v>
-      </c>
-      <c r="K6" s="9">
-        <v>55</v>
-      </c>
-      <c r="L6" s="9">
-        <v>35</v>
-      </c>
-      <c r="M6" s="9">
-        <v>55</v>
-      </c>
-      <c r="N6" s="9">
-        <v>55</v>
-      </c>
-      <c r="O6" s="9">
-        <v>35</v>
-      </c>
-      <c r="P6" s="9">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>30</v>
-      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -1065,39 +955,17 @@
       <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="9">
-        <v>7</v>
-      </c>
-      <c r="H7" s="9">
-        <v>42</v>
-      </c>
-      <c r="I7" s="9">
-        <v>38</v>
-      </c>
-      <c r="J7" s="9">
-        <v>34</v>
-      </c>
-      <c r="K7" s="9">
-        <v>49</v>
-      </c>
-      <c r="L7" s="9">
-        <v>46</v>
-      </c>
-      <c r="M7" s="9">
-        <v>27</v>
-      </c>
-      <c r="N7" s="9">
-        <v>24</v>
-      </c>
-      <c r="O7" s="9">
-        <v>14</v>
-      </c>
-      <c r="P7" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>4</v>
-      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -1118,39 +986,17 @@
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="9">
-        <v>20</v>
-      </c>
-      <c r="H8" s="9">
-        <v>20</v>
-      </c>
-      <c r="I8" s="9">
-        <v>20</v>
-      </c>
-      <c r="J8" s="9">
-        <v>30</v>
-      </c>
-      <c r="K8" s="9">
-        <v>55</v>
-      </c>
-      <c r="L8" s="9">
-        <v>60</v>
-      </c>
-      <c r="M8" s="9">
-        <v>40</v>
-      </c>
-      <c r="N8" s="9">
-        <v>40</v>
-      </c>
-      <c r="O8" s="9">
-        <v>50</v>
-      </c>
-      <c r="P8" s="9">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>10</v>
-      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -1171,39 +1017,17 @@
       <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="9">
-        <v>16</v>
-      </c>
-      <c r="H9" s="9">
-        <v>30</v>
-      </c>
-      <c r="I9" s="9">
-        <v>37</v>
-      </c>
-      <c r="J9" s="9">
-        <v>26</v>
-      </c>
-      <c r="K9" s="9">
-        <v>14</v>
-      </c>
-      <c r="L9" s="9">
-        <v>9</v>
-      </c>
-      <c r="M9" s="9">
-        <v>3</v>
-      </c>
-      <c r="N9" s="9">
-        <v>4</v>
-      </c>
-      <c r="O9" s="9">
-        <v>3</v>
-      </c>
-      <c r="P9" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -1224,39 +1048,17 @@
       <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="9">
-        <v>30</v>
-      </c>
-      <c r="H10" s="9">
-        <v>30</v>
-      </c>
-      <c r="I10" s="9">
-        <v>60</v>
-      </c>
-      <c r="J10" s="9">
-        <v>60</v>
-      </c>
-      <c r="K10" s="9">
-        <v>60</v>
-      </c>
-      <c r="L10" s="9">
-        <v>60</v>
-      </c>
-      <c r="M10" s="9">
-        <v>120</v>
-      </c>
-      <c r="N10" s="9">
-        <v>120</v>
-      </c>
-      <c r="O10" s="9">
-        <v>120</v>
-      </c>
-      <c r="P10" s="9">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>30</v>
-      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -1277,39 +1079,17 @@
       <c r="F11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="9">
-        <v>20</v>
-      </c>
-      <c r="H11" s="9">
-        <v>50</v>
-      </c>
-      <c r="I11" s="9">
-        <v>60</v>
-      </c>
-      <c r="J11" s="9">
-        <v>60</v>
-      </c>
-      <c r="K11" s="9">
-        <v>50</v>
-      </c>
-      <c r="L11" s="9">
-        <v>18</v>
-      </c>
-      <c r="M11" s="9">
-        <v>8</v>
-      </c>
-      <c r="N11" s="9">
-        <v>3</v>
-      </c>
-      <c r="O11" s="9">
-        <v>3</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0</v>
-      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
@@ -1330,39 +1110,17 @@
       <c r="F12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="9">
-        <v>35</v>
-      </c>
-      <c r="H12" s="9">
-        <v>40</v>
-      </c>
-      <c r="I12" s="9">
-        <v>60</v>
-      </c>
-      <c r="J12" s="9">
-        <v>70</v>
-      </c>
-      <c r="K12" s="9">
-        <v>70</v>
-      </c>
-      <c r="L12" s="9">
-        <v>15</v>
-      </c>
-      <c r="M12" s="9">
-        <v>5</v>
-      </c>
-      <c r="N12" s="9">
-        <v>5</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0</v>
-      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -1383,39 +1141,17 @@
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="9">
-        <v>60</v>
-      </c>
-      <c r="H13" s="9">
-        <v>120</v>
-      </c>
-      <c r="I13" s="9">
-        <v>150</v>
-      </c>
-      <c r="J13" s="9">
-        <v>150</v>
-      </c>
-      <c r="K13" s="9">
-        <v>15</v>
-      </c>
-      <c r="L13" s="9">
-        <v>15</v>
-      </c>
-      <c r="M13" s="9">
-        <v>10</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>0</v>
-      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -1436,39 +1172,17 @@
       <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="9">
-        <v>34</v>
-      </c>
-      <c r="H14" s="9">
-        <v>40</v>
-      </c>
-      <c r="I14" s="9">
-        <v>75</v>
-      </c>
-      <c r="J14" s="9">
-        <v>76</v>
-      </c>
-      <c r="K14" s="9">
-        <v>75</v>
-      </c>
-      <c r="L14" s="9">
-        <v>60</v>
-      </c>
-      <c r="M14" s="9">
-        <v>25</v>
-      </c>
-      <c r="N14" s="9">
-        <v>63</v>
-      </c>
-      <c r="O14" s="9">
-        <v>25</v>
-      </c>
-      <c r="P14" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>25</v>
-      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
@@ -1489,39 +1203,17 @@
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="9">
-        <v>6</v>
-      </c>
-      <c r="H15" s="9">
-        <v>70</v>
-      </c>
-      <c r="I15" s="9">
-        <v>80</v>
-      </c>
-      <c r="J15" s="9">
-        <v>60</v>
-      </c>
-      <c r="K15" s="9">
-        <v>50</v>
-      </c>
-      <c r="L15" s="9">
-        <v>95</v>
-      </c>
-      <c r="M15" s="9">
-        <v>10</v>
-      </c>
-      <c r="N15" s="9">
-        <v>12</v>
-      </c>
-      <c r="O15" s="9">
-        <v>4</v>
-      </c>
-      <c r="P15" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>0</v>
-      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -1542,39 +1234,17 @@
       <c r="F16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="9">
-        <v>15</v>
-      </c>
-      <c r="H16" s="9">
-        <v>60</v>
-      </c>
-      <c r="I16" s="9">
-        <v>65</v>
-      </c>
-      <c r="J16" s="9">
-        <v>60</v>
-      </c>
-      <c r="K16" s="9">
-        <v>30</v>
-      </c>
-      <c r="L16" s="9">
-        <v>30</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
-      <c r="P16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -1595,39 +1265,17 @@
       <c r="F17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="9">
-        <v>25</v>
-      </c>
-      <c r="H17" s="9">
-        <v>40</v>
-      </c>
-      <c r="I17" s="9">
-        <v>40</v>
-      </c>
-      <c r="J17" s="9">
-        <v>55</v>
-      </c>
-      <c r="K17" s="9">
-        <v>65</v>
-      </c>
-      <c r="L17" s="9">
-        <v>80</v>
-      </c>
-      <c r="M17" s="9">
-        <v>60</v>
-      </c>
-      <c r="N17" s="9">
-        <v>50</v>
-      </c>
-      <c r="O17" s="9">
-        <v>35</v>
-      </c>
-      <c r="P17" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>0</v>
-      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
@@ -1648,39 +1296,17 @@
       <c r="F18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="9">
-        <v>30</v>
-      </c>
-      <c r="H18" s="9">
-        <v>80</v>
-      </c>
-      <c r="I18" s="9">
-        <v>80</v>
-      </c>
-      <c r="J18" s="9">
-        <v>80</v>
-      </c>
-      <c r="K18" s="9">
-        <v>35</v>
-      </c>
-      <c r="L18" s="9">
-        <v>15</v>
-      </c>
-      <c r="M18" s="9">
-        <v>2</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-      <c r="P18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>0</v>
-      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
@@ -1701,39 +1327,17 @@
       <c r="F19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="9">
-        <v>35</v>
-      </c>
-      <c r="H19" s="9">
-        <v>45</v>
-      </c>
-      <c r="I19" s="9">
-        <v>40</v>
-      </c>
-      <c r="J19" s="9">
-        <v>65</v>
-      </c>
-      <c r="K19" s="9">
-        <v>85</v>
-      </c>
-      <c r="L19" s="9">
-        <v>65</v>
-      </c>
-      <c r="M19" s="9">
-        <v>50</v>
-      </c>
-      <c r="N19" s="9">
-        <v>70</v>
-      </c>
-      <c r="O19" s="9">
-        <v>35</v>
-      </c>
-      <c r="P19" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>0</v>
-      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
@@ -1754,39 +1358,17 @@
       <c r="F20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="9">
-        <v>16</v>
-      </c>
-      <c r="H20" s="9">
-        <v>44</v>
-      </c>
-      <c r="I20" s="9">
-        <v>72</v>
-      </c>
-      <c r="J20" s="9">
-        <v>84</v>
-      </c>
-      <c r="K20" s="9">
-        <v>26</v>
-      </c>
-      <c r="L20" s="9">
-        <v>8</v>
-      </c>
-      <c r="M20" s="9">
-        <v>2</v>
-      </c>
-      <c r="N20" s="9">
-        <v>1</v>
-      </c>
-      <c r="O20" s="9">
-        <v>2</v>
-      </c>
-      <c r="P20" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0</v>
-      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -1807,39 +1389,17 @@
       <c r="F21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="9">
-        <v>14</v>
-      </c>
-      <c r="H21" s="9">
-        <v>27</v>
-      </c>
-      <c r="I21" s="9">
-        <v>37</v>
-      </c>
-      <c r="J21" s="9">
-        <v>32</v>
-      </c>
-      <c r="K21" s="9">
-        <v>35</v>
-      </c>
-      <c r="L21" s="9">
-        <v>33</v>
-      </c>
-      <c r="M21" s="9">
-        <v>20</v>
-      </c>
-      <c r="N21" s="9">
-        <v>31</v>
-      </c>
-      <c r="O21" s="9">
-        <v>25</v>
-      </c>
-      <c r="P21" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>3</v>
-      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1860,39 +1420,17 @@
       <c r="F22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>10</v>
-      </c>
-      <c r="O22" s="9">
-        <v>10</v>
-      </c>
-      <c r="P22" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0</v>
-      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
     </row>
     <row r="23" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -1913,39 +1451,17 @@
       <c r="F23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="9">
-        <v>20</v>
-      </c>
-      <c r="H23" s="9">
-        <v>50</v>
-      </c>
-      <c r="I23" s="9">
-        <v>60</v>
-      </c>
-      <c r="J23" s="9">
-        <v>60</v>
-      </c>
-      <c r="K23" s="9">
-        <v>40</v>
-      </c>
-      <c r="L23" s="9">
-        <v>65</v>
-      </c>
-      <c r="M23" s="9">
-        <v>95</v>
-      </c>
-      <c r="N23" s="9">
-        <v>85</v>
-      </c>
-      <c r="O23" s="9">
-        <v>70</v>
-      </c>
-      <c r="P23" s="9">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>10</v>
-      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
@@ -1966,39 +1482,17 @@
       <c r="F24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="9">
-        <v>10</v>
-      </c>
-      <c r="H24" s="9">
-        <v>30</v>
-      </c>
-      <c r="I24" s="9">
-        <v>25</v>
-      </c>
-      <c r="J24" s="9">
-        <v>24</v>
-      </c>
-      <c r="K24" s="9">
-        <v>40</v>
-      </c>
-      <c r="L24" s="9">
-        <v>55</v>
-      </c>
-      <c r="M24" s="9">
-        <v>44</v>
-      </c>
-      <c r="N24" s="9">
-        <v>23</v>
-      </c>
-      <c r="O24" s="9">
-        <v>20</v>
-      </c>
-      <c r="P24" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>5</v>
-      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -2019,39 +1513,17 @@
       <c r="F25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="9">
-        <v>35</v>
-      </c>
-      <c r="H25" s="9">
-        <v>90</v>
-      </c>
-      <c r="I25" s="9">
-        <v>90</v>
-      </c>
-      <c r="J25" s="9">
-        <v>90</v>
-      </c>
-      <c r="K25" s="9">
-        <v>90</v>
-      </c>
-      <c r="L25" s="9">
-        <v>90</v>
-      </c>
-      <c r="M25" s="9">
-        <v>90</v>
-      </c>
-      <c r="N25" s="9">
-        <v>90</v>
-      </c>
-      <c r="O25" s="9">
-        <v>90</v>
-      </c>
-      <c r="P25" s="9">
-        <v>40</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>15</v>
-      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
@@ -2072,39 +1544,17 @@
       <c r="F26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="9">
-        <v>11</v>
-      </c>
-      <c r="H26" s="9">
-        <v>41</v>
-      </c>
-      <c r="I26" s="9">
-        <v>42</v>
-      </c>
-      <c r="J26" s="9">
-        <v>40</v>
-      </c>
-      <c r="K26" s="9">
-        <v>45</v>
-      </c>
-      <c r="L26" s="9">
-        <v>50</v>
-      </c>
-      <c r="M26" s="9">
-        <v>31</v>
-      </c>
-      <c r="N26" s="9">
-        <v>17</v>
-      </c>
-      <c r="O26" s="9">
-        <v>6</v>
-      </c>
-      <c r="P26" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>2</v>
-      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
     </row>
     <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -2125,39 +1575,17 @@
       <c r="F27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="9">
-        <v>20</v>
-      </c>
-      <c r="H27" s="9">
-        <v>30</v>
-      </c>
-      <c r="I27" s="9">
-        <v>40</v>
-      </c>
-      <c r="J27" s="9">
-        <v>40</v>
-      </c>
-      <c r="K27" s="9">
-        <v>50</v>
-      </c>
-      <c r="L27" s="9">
-        <v>50</v>
-      </c>
-      <c r="M27" s="9">
-        <v>30</v>
-      </c>
-      <c r="N27" s="9">
-        <v>30</v>
-      </c>
-      <c r="O27" s="9">
-        <v>20</v>
-      </c>
-      <c r="P27" s="9">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>2</v>
-      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
@@ -2178,39 +1606,17 @@
       <c r="F28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="9">
-        <v>50</v>
-      </c>
-      <c r="H28" s="9">
-        <v>90</v>
-      </c>
-      <c r="I28" s="9">
-        <v>100</v>
-      </c>
-      <c r="J28" s="9">
-        <v>100</v>
-      </c>
-      <c r="K28" s="9">
-        <v>90</v>
-      </c>
-      <c r="L28" s="9">
-        <v>90</v>
-      </c>
-      <c r="M28" s="9">
-        <v>90</v>
-      </c>
-      <c r="N28" s="9">
-        <v>70</v>
-      </c>
-      <c r="O28" s="9">
-        <v>50</v>
-      </c>
-      <c r="P28" s="9">
-        <v>40</v>
-      </c>
-      <c r="Q28" s="9">
-        <v>10</v>
-      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
     </row>
     <row r="29" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
@@ -2231,39 +1637,17 @@
       <c r="F29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="9">
-        <v>50</v>
-      </c>
-      <c r="H29" s="9">
-        <v>50</v>
-      </c>
-      <c r="I29" s="9">
-        <v>50</v>
-      </c>
-      <c r="J29" s="9">
-        <v>60</v>
-      </c>
-      <c r="K29" s="9">
-        <v>50</v>
-      </c>
-      <c r="L29" s="9">
-        <v>50</v>
-      </c>
-      <c r="M29" s="9">
-        <v>70</v>
-      </c>
-      <c r="N29" s="9">
-        <v>70</v>
-      </c>
-      <c r="O29" s="9">
-        <v>40</v>
-      </c>
-      <c r="P29" s="9">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>10</v>
-      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/core/utils/distgradeunificadaCAMPINAS.xlsx
+++ b/core/utils/distgradeunificadaCAMPINAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA669148-C6C9-492F-9582-565B084EE9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB52C8-7BD7-40E4-8FBD-E5469425597D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="110">
   <si>
     <t>PROJETO</t>
   </si>
@@ -235,6 +235,126 @@
   </si>
   <si>
     <t>XG</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>E0141-EMEF/EJA PROFA DULCE BENTO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>E0142-EMEF/EJA EDSON LUÍS LIMA SOUTO</t>
+  </si>
+  <si>
+    <t>E0143-EMEFEI/EJA DR JOÃO ALVES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>E0218-EMEF PROF VICENTE RAO</t>
+  </si>
+  <si>
+    <t>E0216-EMEF PRES HUMBERTO DE ALENCAR CASTELO BRANCO</t>
+  </si>
+  <si>
+    <t>E0217-EMEFEI JULIO DE MESQUITA FILHO</t>
+  </si>
+  <si>
+    <t>E0233-EMEF/EJA OZIEL ALVES PEREIRA</t>
+  </si>
+  <si>
+    <t>E0355-EMEF/EJA MARIA PAVANATTI FAVARO</t>
+  </si>
+  <si>
+    <t>NAED NORTE</t>
+  </si>
+  <si>
+    <t>NAED SUL</t>
+  </si>
+  <si>
+    <t>E0221-EMEF PROF BENEVENUTO DE FIGUEIREDO TORRES</t>
+  </si>
+  <si>
+    <t>NAED LESTE</t>
+  </si>
+  <si>
+    <t>NAED SUDOESTE</t>
+  </si>
+  <si>
+    <t>E0354-EMEF PE EMILIO MIOTTI</t>
+  </si>
+  <si>
+    <t>E0359-EMEFEI/EJA PROF ZEFERINO VAZ</t>
+  </si>
+  <si>
+    <t>NAED NOROESTE</t>
+  </si>
+  <si>
+    <t>E0356-EMEF PE MELICO CÂNDIDO BARBOSA</t>
+  </si>
+  <si>
+    <t>E0410-EMEF/EJA PROFA CLOTILDE BARRAQUET VON ZUBEN</t>
+  </si>
+  <si>
+    <t>E0411-EMEF DR EDSON LUÍS CHAVES</t>
+  </si>
+  <si>
+    <t>E0412-EMEFEI PE FRANCISCO SILVA</t>
   </si>
 </sst>
 </file>
@@ -298,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +446,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,6 +538,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,11 +874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,6 +1812,1066 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
     </row>
+    <row r="30" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="18">
+        <v>30</v>
+      </c>
+      <c r="H30" s="18">
+        <v>60</v>
+      </c>
+      <c r="I30" s="18">
+        <v>60</v>
+      </c>
+      <c r="J30" s="18">
+        <v>60</v>
+      </c>
+      <c r="K30" s="18">
+        <v>60</v>
+      </c>
+      <c r="L30" s="18">
+        <v>30</v>
+      </c>
+      <c r="M30" s="18">
+        <v>90</v>
+      </c>
+      <c r="N30" s="18">
+        <v>100</v>
+      </c>
+      <c r="O30" s="18">
+        <v>70</v>
+      </c>
+      <c r="P30" s="18">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="18">
+        <v>16</v>
+      </c>
+      <c r="H31" s="18">
+        <v>58</v>
+      </c>
+      <c r="I31" s="18">
+        <v>77</v>
+      </c>
+      <c r="J31" s="18">
+        <v>104</v>
+      </c>
+      <c r="K31" s="18">
+        <v>66</v>
+      </c>
+      <c r="L31" s="18">
+        <v>157</v>
+      </c>
+      <c r="M31" s="18">
+        <v>140</v>
+      </c>
+      <c r="N31" s="18">
+        <v>90</v>
+      </c>
+      <c r="O31" s="18">
+        <v>53</v>
+      </c>
+      <c r="P31" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="18">
+        <v>20</v>
+      </c>
+      <c r="H32" s="18">
+        <v>50</v>
+      </c>
+      <c r="I32" s="18">
+        <v>90</v>
+      </c>
+      <c r="J32" s="18">
+        <v>90</v>
+      </c>
+      <c r="K32" s="18">
+        <v>90</v>
+      </c>
+      <c r="L32" s="18">
+        <v>90</v>
+      </c>
+      <c r="M32" s="18">
+        <v>60</v>
+      </c>
+      <c r="N32" s="18">
+        <v>30</v>
+      </c>
+      <c r="O32" s="18">
+        <v>30</v>
+      </c>
+      <c r="P32" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="18">
+        <v>22</v>
+      </c>
+      <c r="H33" s="18">
+        <v>64</v>
+      </c>
+      <c r="I33" s="18">
+        <v>87</v>
+      </c>
+      <c r="J33" s="18">
+        <v>126</v>
+      </c>
+      <c r="K33" s="18">
+        <v>169</v>
+      </c>
+      <c r="L33" s="18">
+        <v>96</v>
+      </c>
+      <c r="M33" s="18">
+        <v>64</v>
+      </c>
+      <c r="N33" s="18">
+        <v>55</v>
+      </c>
+      <c r="O33" s="18">
+        <v>26</v>
+      </c>
+      <c r="P33" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="18">
+        <v>70</v>
+      </c>
+      <c r="J34" s="18">
+        <v>90</v>
+      </c>
+      <c r="K34" s="18">
+        <v>50</v>
+      </c>
+      <c r="L34" s="18">
+        <v>90</v>
+      </c>
+      <c r="M34" s="18">
+        <v>80</v>
+      </c>
+      <c r="N34" s="18">
+        <v>50</v>
+      </c>
+      <c r="O34" s="18">
+        <v>110</v>
+      </c>
+      <c r="P34" s="18">
+        <v>105</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="18">
+        <v>50</v>
+      </c>
+      <c r="H35" s="18">
+        <v>60</v>
+      </c>
+      <c r="I35" s="18">
+        <v>70</v>
+      </c>
+      <c r="J35" s="18">
+        <v>60</v>
+      </c>
+      <c r="K35" s="18">
+        <v>80</v>
+      </c>
+      <c r="L35" s="18">
+        <v>100</v>
+      </c>
+      <c r="M35" s="18">
+        <v>80</v>
+      </c>
+      <c r="N35" s="18">
+        <v>60</v>
+      </c>
+      <c r="O35" s="18">
+        <v>10</v>
+      </c>
+      <c r="P35" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="18">
+        <v>100</v>
+      </c>
+      <c r="H36" s="18">
+        <v>120</v>
+      </c>
+      <c r="I36" s="18">
+        <v>140</v>
+      </c>
+      <c r="J36" s="18">
+        <v>100</v>
+      </c>
+      <c r="K36" s="18">
+        <v>120</v>
+      </c>
+      <c r="L36" s="18">
+        <v>130</v>
+      </c>
+      <c r="M36" s="18">
+        <v>100</v>
+      </c>
+      <c r="N36" s="18">
+        <v>100</v>
+      </c>
+      <c r="O36" s="18">
+        <v>60</v>
+      </c>
+      <c r="P36" s="18">
+        <v>45</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="18">
+        <v>30</v>
+      </c>
+      <c r="H37" s="18">
+        <v>70</v>
+      </c>
+      <c r="I37" s="18">
+        <v>70</v>
+      </c>
+      <c r="J37" s="18">
+        <v>90</v>
+      </c>
+      <c r="K37" s="18">
+        <v>95</v>
+      </c>
+      <c r="L37" s="18">
+        <v>100</v>
+      </c>
+      <c r="M37" s="18">
+        <v>83</v>
+      </c>
+      <c r="N37" s="18">
+        <v>82</v>
+      </c>
+      <c r="O37" s="18">
+        <v>40</v>
+      </c>
+      <c r="P37" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="17">
+        <v>16</v>
+      </c>
+      <c r="H38" s="17">
+        <v>31</v>
+      </c>
+      <c r="I38" s="17">
+        <v>37</v>
+      </c>
+      <c r="J38" s="17">
+        <v>40</v>
+      </c>
+      <c r="K38" s="17">
+        <v>35</v>
+      </c>
+      <c r="L38" s="17">
+        <v>33</v>
+      </c>
+      <c r="M38" s="17">
+        <v>26</v>
+      </c>
+      <c r="N38" s="17">
+        <v>22</v>
+      </c>
+      <c r="O38" s="17">
+        <v>16</v>
+      </c>
+      <c r="P38" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="17">
+        <v>16</v>
+      </c>
+      <c r="H39" s="17">
+        <v>31</v>
+      </c>
+      <c r="I39" s="17">
+        <v>37</v>
+      </c>
+      <c r="J39" s="17">
+        <v>40</v>
+      </c>
+      <c r="K39" s="17">
+        <v>35</v>
+      </c>
+      <c r="L39" s="17">
+        <v>33</v>
+      </c>
+      <c r="M39" s="17">
+        <v>26</v>
+      </c>
+      <c r="N39" s="17">
+        <v>22</v>
+      </c>
+      <c r="O39" s="17">
+        <v>16</v>
+      </c>
+      <c r="P39" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q39" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="17">
+        <v>20</v>
+      </c>
+      <c r="H40" s="17">
+        <v>64</v>
+      </c>
+      <c r="I40" s="17">
+        <v>112</v>
+      </c>
+      <c r="J40" s="17">
+        <v>115</v>
+      </c>
+      <c r="K40" s="17">
+        <v>112</v>
+      </c>
+      <c r="L40" s="17">
+        <v>79</v>
+      </c>
+      <c r="M40" s="17">
+        <v>56</v>
+      </c>
+      <c r="N40" s="17">
+        <v>44</v>
+      </c>
+      <c r="O40" s="17">
+        <v>34</v>
+      </c>
+      <c r="P40" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="17">
+        <v>16</v>
+      </c>
+      <c r="H41" s="17">
+        <v>31</v>
+      </c>
+      <c r="I41" s="17">
+        <v>37</v>
+      </c>
+      <c r="J41" s="17">
+        <v>40</v>
+      </c>
+      <c r="K41" s="17">
+        <v>35</v>
+      </c>
+      <c r="L41" s="17">
+        <v>33</v>
+      </c>
+      <c r="M41" s="17">
+        <v>26</v>
+      </c>
+      <c r="N41" s="17">
+        <v>22</v>
+      </c>
+      <c r="O41" s="17">
+        <v>16</v>
+      </c>
+      <c r="P41" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="17">
+        <v>16</v>
+      </c>
+      <c r="H42" s="17">
+        <v>31</v>
+      </c>
+      <c r="I42" s="17">
+        <v>37</v>
+      </c>
+      <c r="J42" s="17">
+        <v>40</v>
+      </c>
+      <c r="K42" s="17">
+        <v>35</v>
+      </c>
+      <c r="L42" s="17">
+        <v>33</v>
+      </c>
+      <c r="M42" s="17">
+        <v>26</v>
+      </c>
+      <c r="N42" s="17">
+        <v>22</v>
+      </c>
+      <c r="O42" s="17">
+        <v>16</v>
+      </c>
+      <c r="P42" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="17">
+        <v>40</v>
+      </c>
+      <c r="H43" s="17">
+        <v>70</v>
+      </c>
+      <c r="I43" s="17">
+        <v>80</v>
+      </c>
+      <c r="J43" s="17">
+        <v>80</v>
+      </c>
+      <c r="K43" s="17">
+        <v>92</v>
+      </c>
+      <c r="L43" s="17">
+        <v>92</v>
+      </c>
+      <c r="M43" s="17">
+        <v>62</v>
+      </c>
+      <c r="N43" s="17">
+        <v>31</v>
+      </c>
+      <c r="O43" s="17">
+        <v>19</v>
+      </c>
+      <c r="P43" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A44" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="17">
+        <v>25</v>
+      </c>
+      <c r="H44" s="17">
+        <v>50</v>
+      </c>
+      <c r="I44" s="17">
+        <v>80</v>
+      </c>
+      <c r="J44" s="17">
+        <v>100</v>
+      </c>
+      <c r="K44" s="17">
+        <v>80</v>
+      </c>
+      <c r="L44" s="17">
+        <v>80</v>
+      </c>
+      <c r="M44" s="17">
+        <v>50</v>
+      </c>
+      <c r="N44" s="17">
+        <v>40</v>
+      </c>
+      <c r="O44" s="17">
+        <v>45</v>
+      </c>
+      <c r="P44" s="17">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="17">
+        <v>16</v>
+      </c>
+      <c r="H45" s="17">
+        <v>31</v>
+      </c>
+      <c r="I45" s="17">
+        <v>37</v>
+      </c>
+      <c r="J45" s="17">
+        <v>40</v>
+      </c>
+      <c r="K45" s="17">
+        <v>35</v>
+      </c>
+      <c r="L45" s="17">
+        <v>33</v>
+      </c>
+      <c r="M45" s="17">
+        <v>26</v>
+      </c>
+      <c r="N45" s="17">
+        <v>22</v>
+      </c>
+      <c r="O45" s="17">
+        <v>16</v>
+      </c>
+      <c r="P45" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="17">
+        <v>80</v>
+      </c>
+      <c r="H46" s="17">
+        <v>68</v>
+      </c>
+      <c r="I46" s="17">
+        <v>60</v>
+      </c>
+      <c r="J46" s="17">
+        <v>60</v>
+      </c>
+      <c r="K46" s="17">
+        <v>120</v>
+      </c>
+      <c r="L46" s="17">
+        <v>74</v>
+      </c>
+      <c r="M46" s="17">
+        <v>55</v>
+      </c>
+      <c r="N46" s="17">
+        <v>35</v>
+      </c>
+      <c r="O46" s="17">
+        <v>13</v>
+      </c>
+      <c r="P46" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="17">
+        <v>20</v>
+      </c>
+      <c r="H47" s="17">
+        <v>70</v>
+      </c>
+      <c r="I47" s="17">
+        <v>90</v>
+      </c>
+      <c r="J47" s="17">
+        <v>115</v>
+      </c>
+      <c r="K47" s="17">
+        <v>115</v>
+      </c>
+      <c r="L47" s="17">
+        <v>115</v>
+      </c>
+      <c r="M47" s="17">
+        <v>40</v>
+      </c>
+      <c r="N47" s="17">
+        <v>35</v>
+      </c>
+      <c r="O47" s="17">
+        <v>33</v>
+      </c>
+      <c r="P47" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A48" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="17">
+        <v>60</v>
+      </c>
+      <c r="H48" s="17">
+        <v>80</v>
+      </c>
+      <c r="I48" s="17">
+        <v>85</v>
+      </c>
+      <c r="J48" s="17">
+        <v>110</v>
+      </c>
+      <c r="K48" s="17">
+        <v>80</v>
+      </c>
+      <c r="L48" s="17">
+        <v>60</v>
+      </c>
+      <c r="M48" s="17">
+        <v>80</v>
+      </c>
+      <c r="N48" s="17">
+        <v>40</v>
+      </c>
+      <c r="O48" s="17">
+        <v>40</v>
+      </c>
+      <c r="P48" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A49" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="17">
+        <v>90</v>
+      </c>
+      <c r="H49" s="17">
+        <v>150</v>
+      </c>
+      <c r="I49" s="17">
+        <v>130</v>
+      </c>
+      <c r="J49" s="17">
+        <v>120</v>
+      </c>
+      <c r="K49" s="17">
+        <v>65</v>
+      </c>
+      <c r="L49" s="17">
+        <v>45</v>
+      </c>
+      <c r="M49" s="17">
+        <v>0</v>
+      </c>
+      <c r="N49" s="17">
+        <v>0</v>
+      </c>
+      <c r="O49" s="17">
+        <v>0</v>
+      </c>
+      <c r="P49" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/core/utils/distgradeunificadaCAMPINAS.xlsx
+++ b/core/utils/distgradeunificadaCAMPINAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB52C8-7BD7-40E4-8FBD-E5469425597D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D697556-74BD-44C7-9FE3-9B212932C1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -878,7 +878,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,39 +1831,17 @@
       <c r="F30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="18">
-        <v>30</v>
-      </c>
-      <c r="H30" s="18">
-        <v>60</v>
-      </c>
-      <c r="I30" s="18">
-        <v>60</v>
-      </c>
-      <c r="J30" s="18">
-        <v>60</v>
-      </c>
-      <c r="K30" s="18">
-        <v>60</v>
-      </c>
-      <c r="L30" s="18">
-        <v>30</v>
-      </c>
-      <c r="M30" s="18">
-        <v>90</v>
-      </c>
-      <c r="N30" s="18">
-        <v>100</v>
-      </c>
-      <c r="O30" s="18">
-        <v>70</v>
-      </c>
-      <c r="P30" s="18">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="18">
-        <v>17</v>
-      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
@@ -1884,39 +1862,17 @@
       <c r="F31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="18">
-        <v>16</v>
-      </c>
-      <c r="H31" s="18">
-        <v>58</v>
-      </c>
-      <c r="I31" s="18">
-        <v>77</v>
-      </c>
-      <c r="J31" s="18">
-        <v>104</v>
-      </c>
-      <c r="K31" s="18">
-        <v>66</v>
-      </c>
-      <c r="L31" s="18">
-        <v>157</v>
-      </c>
-      <c r="M31" s="18">
-        <v>140</v>
-      </c>
-      <c r="N31" s="18">
-        <v>90</v>
-      </c>
-      <c r="O31" s="18">
-        <v>53</v>
-      </c>
-      <c r="P31" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q31" s="18">
-        <v>4</v>
-      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
@@ -1937,39 +1893,17 @@
       <c r="F32" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="18">
-        <v>20</v>
-      </c>
-      <c r="H32" s="18">
-        <v>50</v>
-      </c>
-      <c r="I32" s="18">
-        <v>90</v>
-      </c>
-      <c r="J32" s="18">
-        <v>90</v>
-      </c>
-      <c r="K32" s="18">
-        <v>90</v>
-      </c>
-      <c r="L32" s="18">
-        <v>90</v>
-      </c>
-      <c r="M32" s="18">
-        <v>60</v>
-      </c>
-      <c r="N32" s="18">
-        <v>30</v>
-      </c>
-      <c r="O32" s="18">
-        <v>30</v>
-      </c>
-      <c r="P32" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q32" s="18">
-        <v>15</v>
-      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
     </row>
     <row r="33" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
@@ -1990,39 +1924,17 @@
       <c r="F33" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="18">
-        <v>22</v>
-      </c>
-      <c r="H33" s="18">
-        <v>64</v>
-      </c>
-      <c r="I33" s="18">
-        <v>87</v>
-      </c>
-      <c r="J33" s="18">
-        <v>126</v>
-      </c>
-      <c r="K33" s="18">
-        <v>169</v>
-      </c>
-      <c r="L33" s="18">
-        <v>96</v>
-      </c>
-      <c r="M33" s="18">
-        <v>64</v>
-      </c>
-      <c r="N33" s="18">
-        <v>55</v>
-      </c>
-      <c r="O33" s="18">
-        <v>26</v>
-      </c>
-      <c r="P33" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="18">
-        <v>1</v>
-      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
     </row>
     <row r="34" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
@@ -2043,39 +1955,17 @@
       <c r="F34" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="18">
-        <v>0</v>
-      </c>
-      <c r="H34" s="18">
-        <v>0</v>
-      </c>
-      <c r="I34" s="18">
-        <v>70</v>
-      </c>
-      <c r="J34" s="18">
-        <v>90</v>
-      </c>
-      <c r="K34" s="18">
-        <v>50</v>
-      </c>
-      <c r="L34" s="18">
-        <v>90</v>
-      </c>
-      <c r="M34" s="18">
-        <v>80</v>
-      </c>
-      <c r="N34" s="18">
-        <v>50</v>
-      </c>
-      <c r="O34" s="18">
-        <v>110</v>
-      </c>
-      <c r="P34" s="18">
-        <v>105</v>
-      </c>
-      <c r="Q34" s="18">
-        <v>5</v>
-      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
@@ -2096,39 +1986,17 @@
       <c r="F35" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G35" s="18">
-        <v>50</v>
-      </c>
-      <c r="H35" s="18">
-        <v>60</v>
-      </c>
-      <c r="I35" s="18">
-        <v>70</v>
-      </c>
-      <c r="J35" s="18">
-        <v>60</v>
-      </c>
-      <c r="K35" s="18">
-        <v>80</v>
-      </c>
-      <c r="L35" s="18">
-        <v>100</v>
-      </c>
-      <c r="M35" s="18">
-        <v>80</v>
-      </c>
-      <c r="N35" s="18">
-        <v>60</v>
-      </c>
-      <c r="O35" s="18">
-        <v>10</v>
-      </c>
-      <c r="P35" s="18">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="18">
-        <v>5</v>
-      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
@@ -2149,39 +2017,17 @@
       <c r="F36" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="18">
-        <v>100</v>
-      </c>
-      <c r="H36" s="18">
-        <v>120</v>
-      </c>
-      <c r="I36" s="18">
-        <v>140</v>
-      </c>
-      <c r="J36" s="18">
-        <v>100</v>
-      </c>
-      <c r="K36" s="18">
-        <v>120</v>
-      </c>
-      <c r="L36" s="18">
-        <v>130</v>
-      </c>
-      <c r="M36" s="18">
-        <v>100</v>
-      </c>
-      <c r="N36" s="18">
-        <v>100</v>
-      </c>
-      <c r="O36" s="18">
-        <v>60</v>
-      </c>
-      <c r="P36" s="18">
-        <v>45</v>
-      </c>
-      <c r="Q36" s="18">
-        <v>20</v>
-      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
     </row>
     <row r="37" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
@@ -2202,39 +2048,17 @@
       <c r="F37" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G37" s="18">
-        <v>30</v>
-      </c>
-      <c r="H37" s="18">
-        <v>70</v>
-      </c>
-      <c r="I37" s="18">
-        <v>70</v>
-      </c>
-      <c r="J37" s="18">
-        <v>90</v>
-      </c>
-      <c r="K37" s="18">
-        <v>95</v>
-      </c>
-      <c r="L37" s="18">
-        <v>100</v>
-      </c>
-      <c r="M37" s="18">
-        <v>83</v>
-      </c>
-      <c r="N37" s="18">
-        <v>82</v>
-      </c>
-      <c r="O37" s="18">
-        <v>40</v>
-      </c>
-      <c r="P37" s="18">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="18">
-        <v>5</v>
-      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
     </row>
     <row r="38" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
@@ -2255,39 +2079,17 @@
       <c r="F38" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="17">
-        <v>16</v>
-      </c>
-      <c r="H38" s="17">
-        <v>31</v>
-      </c>
-      <c r="I38" s="17">
-        <v>37</v>
-      </c>
-      <c r="J38" s="17">
-        <v>40</v>
-      </c>
-      <c r="K38" s="17">
-        <v>35</v>
-      </c>
-      <c r="L38" s="17">
-        <v>33</v>
-      </c>
-      <c r="M38" s="17">
-        <v>26</v>
-      </c>
-      <c r="N38" s="17">
-        <v>22</v>
-      </c>
-      <c r="O38" s="17">
-        <v>16</v>
-      </c>
-      <c r="P38" s="17">
-        <v>8</v>
-      </c>
-      <c r="Q38" s="17">
-        <v>3</v>
-      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
@@ -2308,39 +2110,17 @@
       <c r="F39" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="17">
-        <v>16</v>
-      </c>
-      <c r="H39" s="17">
-        <v>31</v>
-      </c>
-      <c r="I39" s="17">
-        <v>37</v>
-      </c>
-      <c r="J39" s="17">
-        <v>40</v>
-      </c>
-      <c r="K39" s="17">
-        <v>35</v>
-      </c>
-      <c r="L39" s="17">
-        <v>33</v>
-      </c>
-      <c r="M39" s="17">
-        <v>26</v>
-      </c>
-      <c r="N39" s="17">
-        <v>22</v>
-      </c>
-      <c r="O39" s="17">
-        <v>16</v>
-      </c>
-      <c r="P39" s="17">
-        <v>8</v>
-      </c>
-      <c r="Q39" s="17">
-        <v>3</v>
-      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
     <row r="40" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
@@ -2361,39 +2141,17 @@
       <c r="F40" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="17">
-        <v>20</v>
-      </c>
-      <c r="H40" s="17">
-        <v>64</v>
-      </c>
-      <c r="I40" s="17">
-        <v>112</v>
-      </c>
-      <c r="J40" s="17">
-        <v>115</v>
-      </c>
-      <c r="K40" s="17">
-        <v>112</v>
-      </c>
-      <c r="L40" s="17">
-        <v>79</v>
-      </c>
-      <c r="M40" s="17">
-        <v>56</v>
-      </c>
-      <c r="N40" s="17">
-        <v>44</v>
-      </c>
-      <c r="O40" s="17">
-        <v>34</v>
-      </c>
-      <c r="P40" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="17">
-        <v>2</v>
-      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
     <row r="41" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
@@ -2414,39 +2172,17 @@
       <c r="F41" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G41" s="17">
-        <v>16</v>
-      </c>
-      <c r="H41" s="17">
-        <v>31</v>
-      </c>
-      <c r="I41" s="17">
-        <v>37</v>
-      </c>
-      <c r="J41" s="17">
-        <v>40</v>
-      </c>
-      <c r="K41" s="17">
-        <v>35</v>
-      </c>
-      <c r="L41" s="17">
-        <v>33</v>
-      </c>
-      <c r="M41" s="17">
-        <v>26</v>
-      </c>
-      <c r="N41" s="17">
-        <v>22</v>
-      </c>
-      <c r="O41" s="17">
-        <v>16</v>
-      </c>
-      <c r="P41" s="17">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="17">
-        <v>3</v>
-      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
     <row r="42" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
@@ -2467,39 +2203,17 @@
       <c r="F42" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G42" s="17">
-        <v>16</v>
-      </c>
-      <c r="H42" s="17">
-        <v>31</v>
-      </c>
-      <c r="I42" s="17">
-        <v>37</v>
-      </c>
-      <c r="J42" s="17">
-        <v>40</v>
-      </c>
-      <c r="K42" s="17">
-        <v>35</v>
-      </c>
-      <c r="L42" s="17">
-        <v>33</v>
-      </c>
-      <c r="M42" s="17">
-        <v>26</v>
-      </c>
-      <c r="N42" s="17">
-        <v>22</v>
-      </c>
-      <c r="O42" s="17">
-        <v>16</v>
-      </c>
-      <c r="P42" s="17">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="17">
-        <v>3</v>
-      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
     <row r="43" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
@@ -2520,39 +2234,17 @@
       <c r="F43" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G43" s="17">
-        <v>40</v>
-      </c>
-      <c r="H43" s="17">
-        <v>70</v>
-      </c>
-      <c r="I43" s="17">
-        <v>80</v>
-      </c>
-      <c r="J43" s="17">
-        <v>80</v>
-      </c>
-      <c r="K43" s="17">
-        <v>92</v>
-      </c>
-      <c r="L43" s="17">
-        <v>92</v>
-      </c>
-      <c r="M43" s="17">
-        <v>62</v>
-      </c>
-      <c r="N43" s="17">
-        <v>31</v>
-      </c>
-      <c r="O43" s="17">
-        <v>19</v>
-      </c>
-      <c r="P43" s="17">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="17">
-        <v>1</v>
-      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
     <row r="44" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
@@ -2573,39 +2265,17 @@
       <c r="F44" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G44" s="17">
-        <v>25</v>
-      </c>
-      <c r="H44" s="17">
-        <v>50</v>
-      </c>
-      <c r="I44" s="17">
-        <v>80</v>
-      </c>
-      <c r="J44" s="17">
-        <v>100</v>
-      </c>
-      <c r="K44" s="17">
-        <v>80</v>
-      </c>
-      <c r="L44" s="17">
-        <v>80</v>
-      </c>
-      <c r="M44" s="17">
-        <v>50</v>
-      </c>
-      <c r="N44" s="17">
-        <v>40</v>
-      </c>
-      <c r="O44" s="17">
-        <v>45</v>
-      </c>
-      <c r="P44" s="17">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="17">
-        <v>10</v>
-      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
     <row r="45" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
@@ -2626,39 +2296,17 @@
       <c r="F45" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G45" s="17">
-        <v>16</v>
-      </c>
-      <c r="H45" s="17">
-        <v>31</v>
-      </c>
-      <c r="I45" s="17">
-        <v>37</v>
-      </c>
-      <c r="J45" s="17">
-        <v>40</v>
-      </c>
-      <c r="K45" s="17">
-        <v>35</v>
-      </c>
-      <c r="L45" s="17">
-        <v>33</v>
-      </c>
-      <c r="M45" s="17">
-        <v>26</v>
-      </c>
-      <c r="N45" s="17">
-        <v>22</v>
-      </c>
-      <c r="O45" s="17">
-        <v>16</v>
-      </c>
-      <c r="P45" s="17">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="17">
-        <v>3</v>
-      </c>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
     <row r="46" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
@@ -2679,39 +2327,17 @@
       <c r="F46" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="17">
-        <v>80</v>
-      </c>
-      <c r="H46" s="17">
-        <v>68</v>
-      </c>
-      <c r="I46" s="17">
-        <v>60</v>
-      </c>
-      <c r="J46" s="17">
-        <v>60</v>
-      </c>
-      <c r="K46" s="17">
-        <v>120</v>
-      </c>
-      <c r="L46" s="17">
-        <v>74</v>
-      </c>
-      <c r="M46" s="17">
-        <v>55</v>
-      </c>
-      <c r="N46" s="17">
-        <v>35</v>
-      </c>
-      <c r="O46" s="17">
-        <v>13</v>
-      </c>
-      <c r="P46" s="17">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="17">
-        <v>5</v>
-      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
     <row r="47" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
@@ -2732,39 +2358,17 @@
       <c r="F47" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G47" s="17">
-        <v>20</v>
-      </c>
-      <c r="H47" s="17">
-        <v>70</v>
-      </c>
-      <c r="I47" s="17">
-        <v>90</v>
-      </c>
-      <c r="J47" s="17">
-        <v>115</v>
-      </c>
-      <c r="K47" s="17">
-        <v>115</v>
-      </c>
-      <c r="L47" s="17">
-        <v>115</v>
-      </c>
-      <c r="M47" s="17">
-        <v>40</v>
-      </c>
-      <c r="N47" s="17">
-        <v>35</v>
-      </c>
-      <c r="O47" s="17">
-        <v>33</v>
-      </c>
-      <c r="P47" s="17">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="17">
-        <v>4</v>
-      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
     <row r="48" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
@@ -2785,39 +2389,17 @@
       <c r="F48" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G48" s="17">
-        <v>60</v>
-      </c>
-      <c r="H48" s="17">
-        <v>80</v>
-      </c>
-      <c r="I48" s="17">
-        <v>85</v>
-      </c>
-      <c r="J48" s="17">
-        <v>110</v>
-      </c>
-      <c r="K48" s="17">
-        <v>80</v>
-      </c>
-      <c r="L48" s="17">
-        <v>60</v>
-      </c>
-      <c r="M48" s="17">
-        <v>80</v>
-      </c>
-      <c r="N48" s="17">
-        <v>40</v>
-      </c>
-      <c r="O48" s="17">
-        <v>40</v>
-      </c>
-      <c r="P48" s="17">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="17">
-        <v>0</v>
-      </c>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
     <row r="49" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
@@ -2838,39 +2420,17 @@
       <c r="F49" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G49" s="17">
-        <v>90</v>
-      </c>
-      <c r="H49" s="17">
-        <v>150</v>
-      </c>
-      <c r="I49" s="17">
-        <v>130</v>
-      </c>
-      <c r="J49" s="17">
-        <v>120</v>
-      </c>
-      <c r="K49" s="17">
-        <v>65</v>
-      </c>
-      <c r="L49" s="17">
-        <v>45</v>
-      </c>
-      <c r="M49" s="17">
-        <v>0</v>
-      </c>
-      <c r="N49" s="17">
-        <v>0</v>
-      </c>
-      <c r="O49" s="17">
-        <v>0</v>
-      </c>
-      <c r="P49" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="17">
-        <v>0</v>
-      </c>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/core/utils/distgradeunificadaCAMPINAS.xlsx
+++ b/core/utils/distgradeunificadaCAMPINAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D697556-74BD-44C7-9FE3-9B212932C1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33265C1-3A88-4717-BAED-83A42D7D6094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="160">
   <si>
     <t>PROJETO</t>
   </si>
@@ -355,6 +355,156 @@
   </si>
   <si>
     <t>E0412-EMEFEI PE FRANCISCO SILVA</t>
+  </si>
+  <si>
+    <t>CALÇA</t>
+  </si>
+  <si>
+    <t>camiseta manga longa</t>
+  </si>
+  <si>
+    <t>RM 01</t>
+  </si>
+  <si>
+    <t>RM 02</t>
+  </si>
+  <si>
+    <t>RM 03</t>
+  </si>
+  <si>
+    <t>RM 04</t>
+  </si>
+  <si>
+    <t>RM 05</t>
+  </si>
+  <si>
+    <t>RM 06</t>
+  </si>
+  <si>
+    <t>RM 07</t>
+  </si>
+  <si>
+    <t>RM 08</t>
+  </si>
+  <si>
+    <t>RM 09</t>
+  </si>
+  <si>
+    <t>RM 10</t>
+  </si>
+  <si>
+    <t>RM 11</t>
+  </si>
+  <si>
+    <t>RM 12</t>
+  </si>
+  <si>
+    <t>RM 13</t>
+  </si>
+  <si>
+    <t>RM 14</t>
+  </si>
+  <si>
+    <t>RM 15</t>
+  </si>
+  <si>
+    <t>RM 16</t>
+  </si>
+  <si>
+    <t>RM 17</t>
+  </si>
+  <si>
+    <t>RM 18</t>
+  </si>
+  <si>
+    <t>RM 19</t>
+  </si>
+  <si>
+    <t>RM 20</t>
+  </si>
+  <si>
+    <t>RM 21</t>
+  </si>
+  <si>
+    <t>RM 22</t>
+  </si>
+  <si>
+    <t>RM 23</t>
+  </si>
+  <si>
+    <t>RM 24</t>
+  </si>
+  <si>
+    <t>RM 25</t>
+  </si>
+  <si>
+    <t>RM 26</t>
+  </si>
+  <si>
+    <t>RM 27</t>
+  </si>
+  <si>
+    <t>RM 28</t>
+  </si>
+  <si>
+    <t>RM 29</t>
+  </si>
+  <si>
+    <t>RM 30</t>
+  </si>
+  <si>
+    <t>RM 31</t>
+  </si>
+  <si>
+    <t>RM 32</t>
+  </si>
+  <si>
+    <t>RM 33</t>
+  </si>
+  <si>
+    <t>RM 34</t>
+  </si>
+  <si>
+    <t>RM 35</t>
+  </si>
+  <si>
+    <t>RM 36</t>
+  </si>
+  <si>
+    <t>RM 37</t>
+  </si>
+  <si>
+    <t>RM 38</t>
+  </si>
+  <si>
+    <t>RM 39</t>
+  </si>
+  <si>
+    <t>RM 40</t>
+  </si>
+  <si>
+    <t>RM 41</t>
+  </si>
+  <si>
+    <t>RM 42</t>
+  </si>
+  <si>
+    <t>RM 43</t>
+  </si>
+  <si>
+    <t>RM 44</t>
+  </si>
+  <si>
+    <t>RM 45</t>
+  </si>
+  <si>
+    <t>RM 46</t>
+  </si>
+  <si>
+    <t>RM 47</t>
+  </si>
+  <si>
+    <t>RM 48</t>
   </si>
 </sst>
 </file>
@@ -874,11 +1024,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +1111,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -980,19 +1130,19 @@
         <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1011,19 +1161,19 @@
         <v>39</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1042,10 +1192,10 @@
         <v>39</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>68</v>
@@ -1054,7 +1204,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -1073,10 +1223,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>68</v>
@@ -1085,7 +1235,7 @@
         <v>38</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -1104,10 +1254,10 @@
         <v>39</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>68</v>
@@ -1116,7 +1266,7 @@
         <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1135,10 +1285,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>68</v>
@@ -1147,7 +1297,7 @@
         <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1166,10 +1316,10 @@
         <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>68</v>
@@ -1178,7 +1328,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1197,10 +1347,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>68</v>
@@ -1209,7 +1359,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1228,10 +1378,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>68</v>
@@ -1240,7 +1390,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1259,10 +1409,10 @@
         <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>68</v>
@@ -1271,7 +1421,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1290,10 +1440,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>68</v>
@@ -1302,7 +1452,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1321,10 +1471,10 @@
         <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>68</v>
@@ -1333,7 +1483,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1352,10 +1502,10 @@
         <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>68</v>
@@ -1364,7 +1514,7 @@
         <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1383,10 +1533,10 @@
         <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>68</v>
@@ -1395,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1414,10 +1564,10 @@
         <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>68</v>
@@ -1426,7 +1576,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1445,10 +1595,10 @@
         <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>68</v>
@@ -1457,7 +1607,7 @@
         <v>38</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1476,10 +1626,10 @@
         <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>68</v>
@@ -1488,7 +1638,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -1502,15 +1652,15 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>58</v>
+      <c r="B20" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>68</v>
@@ -1519,7 +1669,7 @@
         <v>38</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1538,10 +1688,10 @@
         <v>39</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>68</v>
@@ -1550,7 +1700,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1564,15 +1714,15 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>60</v>
+      <c r="B22" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>68</v>
@@ -1581,7 +1731,7 @@
         <v>38</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -1600,10 +1750,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>68</v>
@@ -1612,7 +1762,7 @@
         <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -1631,10 +1781,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>68</v>
@@ -1643,7 +1793,7 @@
         <v>38</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1662,10 +1812,10 @@
         <v>39</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>68</v>
@@ -1674,7 +1824,7 @@
         <v>38</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -1693,10 +1843,10 @@
         <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>68</v>
@@ -1705,7 +1855,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1724,10 +1874,10 @@
         <v>39</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>68</v>
@@ -1736,7 +1886,7 @@
         <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1755,10 +1905,10 @@
         <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>68</v>
@@ -1767,7 +1917,7 @@
         <v>38</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -1786,10 +1936,10 @@
         <v>39</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>68</v>
@@ -1798,7 +1948,7 @@
         <v>38</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1813,76 +1963,76 @@
       <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
+      <c r="A30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
+      <c r="A31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
     </row>
     <row r="32" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>68</v>
@@ -1890,8 +2040,8 @@
       <c r="E32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>72</v>
+      <c r="F32" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -1910,10 +2060,10 @@
         <v>39</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>68</v>
@@ -1921,8 +2071,8 @@
       <c r="E33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>73</v>
+      <c r="F33" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -1941,10 +2091,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>68</v>
@@ -1952,8 +2102,8 @@
       <c r="E34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>74</v>
+      <c r="F34" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -1972,10 +2122,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>68</v>
@@ -1983,8 +2133,8 @@
       <c r="E35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>75</v>
+      <c r="F35" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -2003,10 +2153,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>68</v>
@@ -2014,8 +2164,8 @@
       <c r="E36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>76</v>
+      <c r="F36" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -2034,10 +2184,10 @@
         <v>39</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>68</v>
@@ -2045,8 +2195,8 @@
       <c r="E37" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>77</v>
+      <c r="F37" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -2061,76 +2211,76 @@
       <c r="Q37" s="18"/>
     </row>
     <row r="38" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="A38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
     </row>
     <row r="39" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="A39" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
     </row>
     <row r="40" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>68</v>
@@ -2138,8 +2288,8 @@
       <c r="E40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>80</v>
+      <c r="F40" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
@@ -2158,10 +2308,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>68</v>
@@ -2169,8 +2319,8 @@
       <c r="E41" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>81</v>
+      <c r="F41" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
@@ -2189,10 +2339,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>68</v>
@@ -2200,8 +2350,8 @@
       <c r="E42" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>82</v>
+      <c r="F42" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
@@ -2220,10 +2370,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>68</v>
@@ -2231,8 +2381,8 @@
       <c r="E43" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>83</v>
+      <c r="F43" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -2251,10 +2401,10 @@
         <v>39</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>68</v>
@@ -2262,8 +2412,8 @@
       <c r="E44" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>84</v>
+      <c r="F44" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
@@ -2282,10 +2432,10 @@
         <v>39</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>68</v>
@@ -2293,8 +2443,8 @@
       <c r="E45" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="15" t="s">
-        <v>85</v>
+      <c r="F45" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -2313,10 +2463,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>68</v>
@@ -2324,8 +2474,8 @@
       <c r="E46" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>86</v>
+      <c r="F46" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -2344,10 +2494,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>68</v>
@@ -2355,8 +2505,8 @@
       <c r="E47" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>87</v>
+      <c r="F47" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -2374,11 +2524,11 @@
       <c r="A48" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>108</v>
+      <c r="B48" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>68</v>
@@ -2386,8 +2536,8 @@
       <c r="E48" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>88</v>
+      <c r="F48" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -2406,10 +2556,10 @@
         <v>39</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>68</v>
@@ -2417,8 +2567,8 @@
       <c r="E49" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="15" t="s">
-        <v>89</v>
+      <c r="F49" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -2432,6 +2582,68 @@
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
     </row>
+    <row r="50" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A50" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+    </row>
+    <row r="51" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/core/utils/distgradeunificadaCAMPINAS.xlsx
+++ b/core/utils/distgradeunificadaCAMPINAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33265C1-3A88-4717-BAED-83A42D7D6094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261D7AE6-1784-4AB4-9216-F30E94053E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1027,8 +1027,8 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:Q51"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaCAMPINAS.xlsx
+++ b/core/utils/distgradeunificadaCAMPINAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SYS_EXPED_BACK\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261D7AE6-1784-4AB4-9216-F30E94053E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26154D9A-98B4-4BAC-B973-0A184408CCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1027,8 +1027,8 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O40" sqref="O40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,12 +1330,20 @@
       <c r="F9" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+      <c r="H9" s="9">
+        <v>10</v>
+      </c>
       <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9">
+        <v>55</v>
+      </c>
       <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="L9" s="9">
+        <v>63</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1516,14 +1524,26 @@
       <c r="F15" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9">
+        <v>12</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="J15" s="9">
+        <v>58</v>
+      </c>
+      <c r="K15" s="9">
+        <v>88</v>
+      </c>
+      <c r="L15" s="9">
+        <v>52</v>
+      </c>
+      <c r="M15" s="9">
+        <v>74</v>
+      </c>
+      <c r="N15" s="9">
+        <v>96</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
